--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234123.48582606</v>
+        <v>-1176820.568213875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909676</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10225269.05995047</v>
+        <v>10214676.07287564</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>131.0488855268966</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>113.4237369778851</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>315.3535549221802</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62.91225491362717</v>
+        <v>231.6283553771967</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>200.8471285231655</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,7 +905,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.85450227885472</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>68.77642494757481</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>159.582856075998</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>221.3053114256417</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,7 +1142,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>166.5654587586714</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>79.5854046174441</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>211.5884070205212</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>241.3716707049651</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>113.7218216744499</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.45405731752537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>209.9324537163696</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>73.0151467619386</v>
       </c>
       <c r="H19" t="n">
-        <v>123.2901323038658</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>63.51633119327845</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,13 +2767,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>129.7139627068452</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>26.41040541581631</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,25 +3187,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277809</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432308</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245973</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432289</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>738.4874819278243</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>606.1148702844944</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>576.3805294831936</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>148.5130998924014</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>148.5130998924014</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4328,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.1238364150125</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1452.976507847799</v>
+        <v>1463.215394345875</v>
       </c>
       <c r="U4" t="n">
-        <v>1174.543507100904</v>
+        <v>1184.78239359898</v>
       </c>
       <c r="V4" t="n">
-        <v>1174.543507100904</v>
+        <v>897.8268854694109</v>
       </c>
       <c r="W4" t="n">
-        <v>1174.543507100904</v>
+        <v>625.8004810557024</v>
       </c>
       <c r="X4" t="n">
-        <v>1174.543507100904</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="Y4" t="n">
-        <v>947.1238364150125</v>
+        <v>380.4087263891149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>978.6562886337281</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>540.5138158171513</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>508.6444350319999</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.9100942306991</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990681</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990681</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990681</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="L5" t="n">
-        <v>1294.102365436318</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="M5" t="n">
-        <v>1528.02936532736</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="N5" t="n">
-        <v>1528.02936532736</v>
+        <v>562.6504997812805</v>
       </c>
       <c r="O5" t="n">
-        <v>1528.02936532736</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599284</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536178</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409216</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1968.352359726233</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1605.73540966006</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>1200.879955071093</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>1185.777895690808</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1181.532176030865</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083434</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>429.4587135897361</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1644.724363562988</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.1279908671531</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>451.5662793503781</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>285.6882865519008</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>285.6882865519008</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>285.6882865519008</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.0970115777284</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>275.9722931853665</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>694.1821749533275</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1153.666042134241</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1595.924845291885</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2015.594094517667</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488008</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2372.052394650337</v>
       </c>
       <c r="T7" t="n">
-        <v>1535.988625963248</v>
+        <v>2126.172948228792</v>
       </c>
       <c r="U7" t="n">
-        <v>1257.555625216353</v>
+        <v>1847.739947481898</v>
       </c>
       <c r="V7" t="n">
-        <v>970.6001170867833</v>
+        <v>1560.784439352328</v>
       </c>
       <c r="W7" t="n">
-        <v>698.5737126730747</v>
+        <v>1288.75803493862</v>
       </c>
       <c r="X7" t="n">
-        <v>453.1819580064872</v>
+        <v>1043.366280272032</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.7622873205955</v>
+        <v>815.9466095861403</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.4253830378252</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C8" t="n">
-        <v>954.3233142616525</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>922.4539334765011</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>892.7195926752004</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1030.847379071119</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1030.032328522557</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1014.930269142272</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y8" t="n">
-        <v>1010.684549482329</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.160498707152</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.160498707152</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1216.160498707152</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1216.160498707152</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2216.522375073859</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1778.379902257282</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.470117431727</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>908.6953725900216</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>480.8279429992294</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43011162249333</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249333</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2680097025511</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1348.618301660729</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2326.408164499941</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M11" t="n">
-        <v>2406.703386936618</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2406.703386936618</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.703386936618</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770015</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.51204772861</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481666</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665503</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538542</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3403.137243149688</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3040.520293083515</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.664838494548</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2216.522375073859</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2216.522375073859</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409262</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241217</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510754</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.134064167237</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334209</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>759.7468423200107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>759.7468423200107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>759.7468423200107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7468423200107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>759.7468423200107</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634103</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569395</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025886</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414686</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206893</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1158.071482861515</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>985.5097713447398</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>819.6317785462625</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969997</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587558</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>167.673271474958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854588</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534199</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.263768790368</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.308260660798</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.28185624709</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.890101580502</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1349.890101580502</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,25 +5279,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321677</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461861</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5513,16 +5513,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1077.292364523333</v>
+        <v>949.5782250957709</v>
       </c>
       <c r="C19" t="n">
-        <v>904.7306530065579</v>
+        <v>777.0165135789958</v>
       </c>
       <c r="D19" t="n">
-        <v>738.8526602080806</v>
+        <v>611.1385207805185</v>
       </c>
       <c r="E19" t="n">
-        <v>569.0946564588178</v>
+        <v>441.3805170312558</v>
       </c>
       <c r="F19" t="n">
-        <v>392.387602420574</v>
+        <v>264.673462993012</v>
       </c>
       <c r="G19" t="n">
-        <v>226.7963274464017</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5677,46 +5677,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V19" t="n">
-        <v>2013.948813008508</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W19" t="n">
-        <v>1741.922408594799</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X19" t="n">
-        <v>1496.530653928212</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y19" t="n">
-        <v>1269.11098324232</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993933</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>605.8694973157604</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.92946356862</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3271.658179390882</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992527</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886283</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030271</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666405</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412728</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799766</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6880,7 +6880,7 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,10 +6898,10 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298638</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1133.581508556538</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992527</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886283</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030271</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666405</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412728</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799766</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832272</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298638</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936664</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080651</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716785</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463108</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850146</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882652</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7394,67 +7394,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>122.084990212129</v>
       </c>
       <c r="K41" t="n">
-        <v>532.8213911287357</v>
+        <v>122.084990212129</v>
       </c>
       <c r="L41" t="n">
-        <v>1607.881357381595</v>
+        <v>1197.144956464988</v>
       </c>
       <c r="M41" t="n">
-        <v>2764.929192592146</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>3890.660176028593</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>4870.8398425989</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4870.8398425989</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4870.8398425989</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
         <v>442.520979946312</v>
@@ -7567,13 +7567,13 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7594,10 +7594,10 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7612,7 +7612,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7649,25 +7649,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>371.1626675676727</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.222633820532</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M44" t="n">
-        <v>2603.270469031083</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N44" t="n">
-        <v>3729.00145246753</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O44" t="n">
-        <v>4709.181119037836</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P44" t="n">
-        <v>4709.181119037836</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4735.333849685113</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7804,25 +7804,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758688</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823643</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856853</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7831,25 +7831,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184178</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619391</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204166</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M11" t="n">
-        <v>81.1062852895725</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>327.8732572545621</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8942,13 +8942,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>60.59188538505123</v>
+        <v>404.4043982844096</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,25 +10112,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,22 +10349,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>606.8284014422247</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>24.76594599627389</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>7.571051709084713</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>276.3595594867221</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11312,13 +11312,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>258.8884025713074</v>
       </c>
       <c r="D2" t="n">
-        <v>300.5018014504033</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>88.8497075411629</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>15.25840895118819</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.119939711684393e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>74.15349933190427</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.92021546249201</v>
       </c>
       <c r="H19" t="n">
-        <v>15.21302026266341</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.6500182959538</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833802.8606070214</v>
+        <v>683441.6731699109</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>904178.9074117854</v>
+        <v>906317.4315005842</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>904178.9074117854</v>
+        <v>906673.2078233189</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743274.376059289</v>
+        <v>895925.3266097753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895925.326609775</v>
+        <v>895925.3266097753</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>911485.6339961443</v>
+        <v>911023.2852493011</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37059.88271694046</v>
+        <v>30327.29223468179</v>
       </c>
       <c r="C2" t="n">
         <v>40211.04899178063</v>
@@ -26320,22 +26320,22 @@
         <v>40211.04899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>32781.72832804275</v>
+        <v>39514.31881030143</v>
       </c>
       <c r="F2" t="n">
         <v>39514.31881030142</v>
       </c>
       <c r="G2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.31881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>39514.31881030141</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="I2" t="n">
-        <v>39514.31881030141</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="J2" t="n">
-        <v>39514.31881030141</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="K2" t="n">
         <v>39514.3188103014</v>
@@ -26344,13 +26344,13 @@
         <v>40211.04899178068</v>
       </c>
       <c r="M2" t="n">
+        <v>40211.04899178069</v>
+      </c>
+      <c r="N2" t="n">
         <v>40211.04899178068</v>
       </c>
-      <c r="N2" t="n">
-        <v>40211.04899178063</v>
-      </c>
       <c r="O2" t="n">
-        <v>40211.04899178069</v>
+        <v>40211.04899178066</v>
       </c>
       <c r="P2" t="n">
         <v>40211.04899178069</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246222</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106422</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880865</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658705</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338208</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.74196143521</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962802</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713874</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151319.1470741828</v>
+        <v>100082.6006667567</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>129714.7067070018</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>11818.05667031437</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26445,16 +26445,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>19587.5633871259</v>
+        <v>19587.56338712591</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.56338712589</v>
+        <v>29443.15222066922</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066915</v>
+        <v>29443.15222066922</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066921</v>
+        <v>29443.15222066923</v>
       </c>
       <c r="P4" t="n">
         <v>29443.15222066923</v>
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972133</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-315875.3531541746</v>
+        <v>-271700.8557875772</v>
       </c>
       <c r="C6" t="n">
-        <v>-194513.9790105527</v>
+        <v>-228976.072310639</v>
       </c>
       <c r="D6" t="n">
-        <v>-194513.9790105527</v>
+        <v>-166908.6319961766</v>
       </c>
       <c r="E6" t="n">
-        <v>-207296.541338493</v>
+        <v>-234827.4589264161</v>
       </c>
       <c r="F6" t="n">
-        <v>-135711.8547225708</v>
+        <v>-52472.34970536638</v>
       </c>
       <c r="G6" t="n">
-        <v>-52449.12536598375</v>
+        <v>-52472.34970536638</v>
       </c>
       <c r="H6" t="n">
-        <v>-52449.12536598375</v>
+        <v>-52472.3497053664</v>
       </c>
       <c r="I6" t="n">
-        <v>-52449.12536598375</v>
+        <v>-52472.3497053664</v>
       </c>
       <c r="J6" t="n">
-        <v>-163463.5907109739</v>
+        <v>-163486.8150503566</v>
       </c>
       <c r="K6" t="n">
-        <v>-52449.12536598375</v>
+        <v>-106140.6767687485</v>
       </c>
       <c r="L6" t="n">
-        <v>-71448.24120460378</v>
+        <v>-80228.41489504112</v>
       </c>
       <c r="M6" t="n">
-        <v>-198853.8975298861</v>
+        <v>-202325.4186928302</v>
       </c>
       <c r="N6" t="n">
-        <v>-121550.518612117</v>
+        <v>-64747.71795497824</v>
       </c>
       <c r="O6" t="n">
-        <v>-64747.71795497824</v>
+        <v>-64747.71795497829</v>
       </c>
       <c r="P6" t="n">
-        <v>-64747.71795497824</v>
+        <v>-64747.71795497825</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204166</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643287</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273067</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643287</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>174.8726455171035</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8151160333308</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>180.5083970437021</v>
+        <v>11.79229658013259</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>221.1894462568931</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27625,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.3487601844884</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27786,10 +27786,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>69.72672761895441</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,10 +27822,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.83779588133126</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>212.4557366627692</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,7 +27862,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>257.0232965362129</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>64.06026371890451</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874583</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874862</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184178</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35027,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619391</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204166</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M11" t="n">
-        <v>81.1062852895725</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>327.8732572545621</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,10 +36045,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080455</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>60.59188538505123</v>
+        <v>404.4043982844096</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36610,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37069,22 +37069,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>606.8284014422247</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>24.76594599627389</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>7.571051709084713</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,7 +37950,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>276.3595594867221</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778293</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348443</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
